--- a/128standard/source/ways/ways.xlsx
+++ b/128standard/source/ways/ways.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D875DEB-AEFE-40E6-AF96-588A5BE17B64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2A823F-31C4-40F1-B4ED-DFEF1A2DEABE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1677,10 +1677,10 @@
   <dimension ref="A1:CS196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10887,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="I70">
         <v>1963</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="I71">
         <v>1963</v>

--- a/128standard/source/ways/ways.xlsx
+++ b/128standard/source/ways/ways.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2A823F-31C4-40F1-B4ED-DFEF1A2DEABE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B05369-8C81-4321-8365-3A8295DBEFB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="353">
   <si>
     <t>obj</t>
     <phoneticPr fontId="1"/>
@@ -1239,6 +1239,90 @@
   <si>
     <t>#real_service_life</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.7;-64;-96</t>
+  </si>
+  <si>
+    <t>1.6;-64;-96</t>
+  </si>
+  <si>
+    <t>1.8;-64;-96</t>
+  </si>
+  <si>
+    <t>1.7;-64;-96</t>
+  </si>
+  <si>
+    <t>1.5;-64;-96</t>
+  </si>
+  <si>
+    <t>3.6;-64;-96</t>
+  </si>
+  <si>
+    <t>3.5;-64;-96</t>
+  </si>
+  <si>
+    <t>6.6;-64;-96</t>
+  </si>
+  <si>
+    <t>6.5;-64;-96</t>
+  </si>
+  <si>
+    <t>6.8;-64;-96</t>
+  </si>
+  <si>
+    <t>6.7;-64;-96</t>
+  </si>
+  <si>
+    <t>2.6;-64;-96</t>
+  </si>
+  <si>
+    <t>2.5;-64;-96</t>
+  </si>
+  <si>
+    <t>2.8;-64;-96</t>
+  </si>
+  <si>
+    <t>2.7;-64;-96</t>
+  </si>
+  <si>
+    <t>7.5;-64;-96</t>
+  </si>
+  <si>
+    <t>7.6;-64;-96</t>
+  </si>
+  <si>
+    <t>7.8;-64;-96</t>
+  </si>
+  <si>
+    <t>7.7;-64;-96</t>
+  </si>
+  <si>
+    <t>3.8;-64;-96</t>
+  </si>
+  <si>
+    <t>5.8;-64;-96</t>
+  </si>
+  <si>
+    <t>5.7;-64;-96</t>
+  </si>
+  <si>
+    <t>5.5;-64;-96</t>
+  </si>
+  <si>
+    <t>5.6;-64;-96</t>
+  </si>
+  <si>
+    <t>4.8;-64;-96</t>
+  </si>
+  <si>
+    <t>4.7;-64;-96</t>
+  </si>
+  <si>
+    <t>4.5;-64;-96</t>
+  </si>
+  <si>
+    <t>4.6;-64;-96</t>
   </si>
 </sst>
 </file>
@@ -1677,10 +1761,10 @@
   <dimension ref="A1:CS196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BN20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
+      <selection pane="bottomRight" activeCell="BP30" sqref="BP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4012,34 +4096,90 @@
       <c r="BM21" s="2"/>
       <c r="BN21" s="2"/>
       <c r="BO21" s="2"/>
-      <c r="BP21" s="2"/>
-      <c r="BQ21" s="2"/>
-      <c r="BR21" s="2"/>
-      <c r="BS21" s="2"/>
-      <c r="BT21" s="2"/>
-      <c r="BU21" s="2"/>
-      <c r="BV21" s="2"/>
-      <c r="BW21" s="2"/>
-      <c r="BX21" s="2"/>
-      <c r="BY21" s="2"/>
-      <c r="BZ21" s="2"/>
-      <c r="CA21" s="2"/>
-      <c r="CB21" s="2"/>
-      <c r="CC21" s="2"/>
-      <c r="CD21" s="2"/>
-      <c r="CE21" s="2"/>
-      <c r="CF21" s="2"/>
-      <c r="CG21" s="2"/>
-      <c r="CH21" s="2"/>
-      <c r="CI21" s="2"/>
-      <c r="CJ21" s="2"/>
-      <c r="CK21" s="2"/>
-      <c r="CL21" s="2"/>
-      <c r="CM21" s="2"/>
-      <c r="CN21" s="2"/>
-      <c r="CO21" s="2"/>
-      <c r="CP21" s="2"/>
-      <c r="CQ21" s="2"/>
+      <c r="BP21" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BQ21" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="BR21" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="BS21" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="BT21" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="BU21" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV21" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BW21" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="BX21" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="BY21" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BZ21" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="CA21" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="CB21" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="CC21" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="CD21" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="CE21" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="CF21" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="CG21" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="CH21" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="CI21" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ21" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="CK21" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="CL21" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="CM21" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="CN21" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="CO21" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="CP21" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="CQ21" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="CR21" s="6" t="s">
         <v>247</v>
       </c>
@@ -4205,34 +4345,90 @@
       <c r="BM22" s="2"/>
       <c r="BN22" s="2"/>
       <c r="BO22" s="2"/>
-      <c r="BP22" s="2"/>
-      <c r="BQ22" s="2"/>
-      <c r="BR22" s="2"/>
-      <c r="BS22" s="2"/>
-      <c r="BT22" s="2"/>
-      <c r="BU22" s="2"/>
-      <c r="BV22" s="2"/>
-      <c r="BW22" s="2"/>
-      <c r="BX22" s="2"/>
-      <c r="BY22" s="2"/>
-      <c r="BZ22" s="2"/>
-      <c r="CA22" s="2"/>
-      <c r="CB22" s="2"/>
-      <c r="CC22" s="2"/>
-      <c r="CD22" s="2"/>
-      <c r="CE22" s="2"/>
-      <c r="CF22" s="2"/>
-      <c r="CG22" s="2"/>
-      <c r="CH22" s="2"/>
-      <c r="CI22" s="2"/>
-      <c r="CJ22" s="2"/>
-      <c r="CK22" s="2"/>
-      <c r="CL22" s="2"/>
-      <c r="CM22" s="2"/>
-      <c r="CN22" s="2"/>
-      <c r="CO22" s="2"/>
-      <c r="CP22" s="2"/>
-      <c r="CQ22" s="2"/>
+      <c r="BP22" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BQ22" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="BR22" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="BS22" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="BT22" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="BU22" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV22" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BW22" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="BX22" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="BY22" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BZ22" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="CA22" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="CB22" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="CC22" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="CD22" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="CE22" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="CF22" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="CG22" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="CH22" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="CI22" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ22" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="CK22" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="CL22" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="CM22" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="CN22" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="CO22" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="CP22" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="CQ22" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="CR22" s="6" t="s">
         <v>247</v>
       </c>
@@ -4395,34 +4591,90 @@
       <c r="BM23" s="2"/>
       <c r="BN23" s="2"/>
       <c r="BO23" s="2"/>
-      <c r="BP23" s="2"/>
-      <c r="BQ23" s="2"/>
-      <c r="BR23" s="2"/>
-      <c r="BS23" s="2"/>
-      <c r="BT23" s="2"/>
-      <c r="BU23" s="2"/>
-      <c r="BV23" s="2"/>
-      <c r="BW23" s="2"/>
-      <c r="BX23" s="2"/>
-      <c r="BY23" s="2"/>
-      <c r="BZ23" s="2"/>
-      <c r="CA23" s="2"/>
-      <c r="CB23" s="2"/>
-      <c r="CC23" s="2"/>
-      <c r="CD23" s="2"/>
-      <c r="CE23" s="2"/>
-      <c r="CF23" s="2"/>
-      <c r="CG23" s="2"/>
-      <c r="CH23" s="2"/>
-      <c r="CI23" s="2"/>
-      <c r="CJ23" s="2"/>
-      <c r="CK23" s="2"/>
-      <c r="CL23" s="2"/>
-      <c r="CM23" s="2"/>
-      <c r="CN23" s="2"/>
-      <c r="CO23" s="2"/>
-      <c r="CP23" s="2"/>
-      <c r="CQ23" s="2"/>
+      <c r="BP23" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BQ23" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="BR23" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="BS23" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="BT23" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="BU23" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV23" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BW23" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="BX23" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="BY23" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BZ23" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="CA23" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="CB23" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="CC23" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="CD23" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="CE23" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="CF23" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="CG23" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="CH23" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="CI23" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ23" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="CK23" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="CL23" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="CM23" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="CN23" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="CO23" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="CP23" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="CQ23" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="CR23" s="6" t="s">
         <v>251</v>
       </c>
@@ -4585,34 +4837,90 @@
       <c r="BM24" s="2"/>
       <c r="BN24" s="2"/>
       <c r="BO24" s="2"/>
-      <c r="BP24" s="2"/>
-      <c r="BQ24" s="2"/>
-      <c r="BR24" s="2"/>
-      <c r="BS24" s="2"/>
-      <c r="BT24" s="2"/>
-      <c r="BU24" s="2"/>
-      <c r="BV24" s="2"/>
-      <c r="BW24" s="2"/>
-      <c r="BX24" s="2"/>
-      <c r="BY24" s="2"/>
-      <c r="BZ24" s="2"/>
-      <c r="CA24" s="2"/>
-      <c r="CB24" s="2"/>
-      <c r="CC24" s="2"/>
-      <c r="CD24" s="2"/>
-      <c r="CE24" s="2"/>
-      <c r="CF24" s="2"/>
-      <c r="CG24" s="2"/>
-      <c r="CH24" s="2"/>
-      <c r="CI24" s="2"/>
-      <c r="CJ24" s="2"/>
-      <c r="CK24" s="2"/>
-      <c r="CL24" s="2"/>
-      <c r="CM24" s="2"/>
-      <c r="CN24" s="2"/>
-      <c r="CO24" s="2"/>
-      <c r="CP24" s="2"/>
-      <c r="CQ24" s="2"/>
+      <c r="BP24" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BQ24" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="BR24" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="BS24" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="BT24" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="BU24" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV24" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BW24" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="BX24" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="BY24" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BZ24" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="CA24" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="CB24" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="CC24" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="CD24" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="CE24" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="CF24" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="CG24" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="CH24" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="CI24" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ24" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="CK24" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="CL24" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="CM24" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="CN24" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="CO24" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="CP24" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="CQ24" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="CR24" s="6" t="s">
         <v>253</v>
       </c>
@@ -4775,34 +5083,90 @@
       <c r="BM25" s="2"/>
       <c r="BN25" s="2"/>
       <c r="BO25" s="2"/>
-      <c r="BP25" s="2"/>
-      <c r="BQ25" s="2"/>
-      <c r="BR25" s="2"/>
-      <c r="BS25" s="2"/>
-      <c r="BT25" s="2"/>
-      <c r="BU25" s="2"/>
-      <c r="BV25" s="2"/>
-      <c r="BW25" s="2"/>
-      <c r="BX25" s="2"/>
-      <c r="BY25" s="2"/>
-      <c r="BZ25" s="2"/>
-      <c r="CA25" s="2"/>
-      <c r="CB25" s="2"/>
-      <c r="CC25" s="2"/>
-      <c r="CD25" s="2"/>
-      <c r="CE25" s="2"/>
-      <c r="CF25" s="2"/>
-      <c r="CG25" s="2"/>
-      <c r="CH25" s="2"/>
-      <c r="CI25" s="2"/>
-      <c r="CJ25" s="2"/>
-      <c r="CK25" s="2"/>
-      <c r="CL25" s="2"/>
-      <c r="CM25" s="2"/>
-      <c r="CN25" s="2"/>
-      <c r="CO25" s="2"/>
-      <c r="CP25" s="2"/>
-      <c r="CQ25" s="2"/>
+      <c r="BP25" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BQ25" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="BR25" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="BS25" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="BT25" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="BU25" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV25" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BW25" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="BX25" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="BY25" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BZ25" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="CA25" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="CB25" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="CC25" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="CD25" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="CE25" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="CF25" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="CG25" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="CH25" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="CI25" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ25" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="CK25" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="CL25" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="CM25" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="CN25" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="CO25" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="CP25" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="CQ25" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="CR25" s="6" t="s">
         <v>251</v>
       </c>
@@ -4965,34 +5329,90 @@
       <c r="BM26" s="2"/>
       <c r="BN26" s="2"/>
       <c r="BO26" s="2"/>
-      <c r="BP26" s="2"/>
-      <c r="BQ26" s="2"/>
-      <c r="BR26" s="2"/>
-      <c r="BS26" s="2"/>
-      <c r="BT26" s="2"/>
-      <c r="BU26" s="2"/>
-      <c r="BV26" s="2"/>
-      <c r="BW26" s="2"/>
-      <c r="BX26" s="2"/>
-      <c r="BY26" s="2"/>
-      <c r="BZ26" s="2"/>
-      <c r="CA26" s="2"/>
-      <c r="CB26" s="2"/>
-      <c r="CC26" s="2"/>
-      <c r="CD26" s="2"/>
-      <c r="CE26" s="2"/>
-      <c r="CF26" s="2"/>
-      <c r="CG26" s="2"/>
-      <c r="CH26" s="2"/>
-      <c r="CI26" s="2"/>
-      <c r="CJ26" s="2"/>
-      <c r="CK26" s="2"/>
-      <c r="CL26" s="2"/>
-      <c r="CM26" s="2"/>
-      <c r="CN26" s="2"/>
-      <c r="CO26" s="2"/>
-      <c r="CP26" s="2"/>
-      <c r="CQ26" s="2"/>
+      <c r="BP26" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BQ26" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="BR26" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="BS26" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="BT26" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="BU26" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV26" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BW26" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="BX26" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="BY26" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BZ26" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="CA26" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="CB26" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="CC26" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="CD26" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="CE26" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="CF26" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="CG26" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="CH26" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="CI26" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ26" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="CK26" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="CL26" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="CM26" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="CN26" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="CO26" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="CP26" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="CQ26" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="CR26" s="6" t="s">
         <v>253</v>
       </c>
@@ -5155,34 +5575,90 @@
       <c r="BM27" s="2"/>
       <c r="BN27" s="2"/>
       <c r="BO27" s="2"/>
-      <c r="BP27" s="2"/>
-      <c r="BQ27" s="2"/>
-      <c r="BR27" s="2"/>
-      <c r="BS27" s="2"/>
-      <c r="BT27" s="2"/>
-      <c r="BU27" s="2"/>
-      <c r="BV27" s="2"/>
-      <c r="BW27" s="2"/>
-      <c r="BX27" s="2"/>
-      <c r="BY27" s="2"/>
-      <c r="BZ27" s="2"/>
-      <c r="CA27" s="2"/>
-      <c r="CB27" s="2"/>
-      <c r="CC27" s="2"/>
-      <c r="CD27" s="2"/>
-      <c r="CE27" s="2"/>
-      <c r="CF27" s="2"/>
-      <c r="CG27" s="2"/>
-      <c r="CH27" s="2"/>
-      <c r="CI27" s="2"/>
-      <c r="CJ27" s="2"/>
-      <c r="CK27" s="2"/>
-      <c r="CL27" s="2"/>
-      <c r="CM27" s="2"/>
-      <c r="CN27" s="2"/>
-      <c r="CO27" s="2"/>
-      <c r="CP27" s="2"/>
-      <c r="CQ27" s="2"/>
+      <c r="BP27" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BQ27" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="BR27" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="BS27" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="BT27" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="BU27" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV27" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BW27" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="BX27" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="BY27" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BZ27" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="CA27" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="CB27" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="CC27" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="CD27" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="CE27" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="CF27" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="CG27" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="CH27" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="CI27" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ27" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="CK27" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="CL27" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="CM27" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="CN27" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="CO27" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="CP27" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="CQ27" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="CR27" s="6" t="s">
         <v>256</v>
       </c>
@@ -5345,34 +5821,90 @@
       <c r="BM28" s="2"/>
       <c r="BN28" s="2"/>
       <c r="BO28" s="2"/>
-      <c r="BP28" s="2"/>
-      <c r="BQ28" s="2"/>
-      <c r="BR28" s="2"/>
-      <c r="BS28" s="2"/>
-      <c r="BT28" s="2"/>
-      <c r="BU28" s="2"/>
-      <c r="BV28" s="2"/>
-      <c r="BW28" s="2"/>
-      <c r="BX28" s="2"/>
-      <c r="BY28" s="2"/>
-      <c r="BZ28" s="2"/>
-      <c r="CA28" s="2"/>
-      <c r="CB28" s="2"/>
-      <c r="CC28" s="2"/>
-      <c r="CD28" s="2"/>
-      <c r="CE28" s="2"/>
-      <c r="CF28" s="2"/>
-      <c r="CG28" s="2"/>
-      <c r="CH28" s="2"/>
-      <c r="CI28" s="2"/>
-      <c r="CJ28" s="2"/>
-      <c r="CK28" s="2"/>
-      <c r="CL28" s="2"/>
-      <c r="CM28" s="2"/>
-      <c r="CN28" s="2"/>
-      <c r="CO28" s="2"/>
-      <c r="CP28" s="2"/>
-      <c r="CQ28" s="2"/>
+      <c r="BP28" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BQ28" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="BR28" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="BS28" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="BT28" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="BU28" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV28" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BW28" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="BX28" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="BY28" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BZ28" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="CA28" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="CB28" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="CC28" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="CD28" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="CE28" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="CF28" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="CG28" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="CH28" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="CI28" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ28" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="CK28" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="CL28" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="CM28" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="CN28" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="CO28" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="CP28" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="CQ28" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="CR28" s="6" t="s">
         <v>258</v>
       </c>
@@ -5535,34 +6067,90 @@
       <c r="BM29" s="2"/>
       <c r="BN29" s="2"/>
       <c r="BO29" s="2"/>
-      <c r="BP29" s="2"/>
-      <c r="BQ29" s="2"/>
-      <c r="BR29" s="2"/>
-      <c r="BS29" s="2"/>
-      <c r="BT29" s="2"/>
-      <c r="BU29" s="2"/>
-      <c r="BV29" s="2"/>
-      <c r="BW29" s="2"/>
-      <c r="BX29" s="2"/>
-      <c r="BY29" s="2"/>
-      <c r="BZ29" s="2"/>
-      <c r="CA29" s="2"/>
-      <c r="CB29" s="2"/>
-      <c r="CC29" s="2"/>
-      <c r="CD29" s="2"/>
-      <c r="CE29" s="2"/>
-      <c r="CF29" s="2"/>
-      <c r="CG29" s="2"/>
-      <c r="CH29" s="2"/>
-      <c r="CI29" s="2"/>
-      <c r="CJ29" s="2"/>
-      <c r="CK29" s="2"/>
-      <c r="CL29" s="2"/>
-      <c r="CM29" s="2"/>
-      <c r="CN29" s="2"/>
-      <c r="CO29" s="2"/>
-      <c r="CP29" s="2"/>
-      <c r="CQ29" s="2"/>
+      <c r="BP29" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BQ29" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="BR29" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="BS29" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="BT29" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="BU29" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV29" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BW29" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="BX29" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="BY29" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BZ29" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="CA29" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="CB29" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="CC29" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="CD29" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="CE29" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="CF29" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="CG29" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="CH29" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="CI29" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ29" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="CK29" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="CL29" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="CM29" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="CN29" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="CO29" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="CP29" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="CQ29" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="CR29" s="6" t="s">
         <v>261</v>
       </c>
@@ -5725,34 +6313,90 @@
       <c r="BM30" s="2"/>
       <c r="BN30" s="2"/>
       <c r="BO30" s="2"/>
-      <c r="BP30" s="2"/>
-      <c r="BQ30" s="2"/>
-      <c r="BR30" s="2"/>
-      <c r="BS30" s="2"/>
-      <c r="BT30" s="2"/>
-      <c r="BU30" s="2"/>
-      <c r="BV30" s="2"/>
-      <c r="BW30" s="2"/>
-      <c r="BX30" s="2"/>
-      <c r="BY30" s="2"/>
-      <c r="BZ30" s="2"/>
-      <c r="CA30" s="2"/>
-      <c r="CB30" s="2"/>
-      <c r="CC30" s="2"/>
-      <c r="CD30" s="2"/>
-      <c r="CE30" s="2"/>
-      <c r="CF30" s="2"/>
-      <c r="CG30" s="2"/>
-      <c r="CH30" s="2"/>
-      <c r="CI30" s="2"/>
-      <c r="CJ30" s="2"/>
-      <c r="CK30" s="2"/>
-      <c r="CL30" s="2"/>
-      <c r="CM30" s="2"/>
-      <c r="CN30" s="2"/>
-      <c r="CO30" s="2"/>
-      <c r="CP30" s="2"/>
-      <c r="CQ30" s="2"/>
+      <c r="BP30" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BQ30" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="BR30" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="BS30" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="BT30" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="BU30" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV30" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BW30" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="BX30" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="BY30" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BZ30" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="CA30" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="CB30" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="CC30" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="CD30" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="CE30" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="CF30" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="CG30" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="CH30" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="CI30" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ30" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="CK30" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="CL30" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="CM30" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="CN30" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="CO30" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="CP30" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="CQ30" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="CR30" s="6" t="s">
         <v>296</v>
       </c>
